--- a/数据整理/stocks/A股/深证主板/000661-长春高新.xlsx
+++ b/数据整理/stocks/A股/深证主板/000661-长春高新.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -61474,4 +61475,9026 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H237"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.8218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>200.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.2363</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>116.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.2665</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>237.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.2946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>142.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.0130</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>117.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.7369</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>213.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.2263</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0244</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>52.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.0134</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7907</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5714</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>43.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2685</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011248</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实品质回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.2144</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.1611</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7747</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>42.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6559</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6283</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5734</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>52.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5034</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4621</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010849</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4053</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3879</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3757</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>42.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3106</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3063</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011278</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>36.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2970</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010736</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2088</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0839</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0094</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0038</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>110015</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达行业领先混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9760</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9654</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9649</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>31.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9166</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9055</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8328</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004746</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8105</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7994</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7341</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7188</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6971</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6807</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6736</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6678</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6614</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6301</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6115</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5982</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5772</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5528</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5482</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>50.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4947</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011040</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4913</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4654</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4295</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011041</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4215</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>60.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4073</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012175</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011777</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>38.66</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3957</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3935</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3895</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>15.93</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3282</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3054</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3017</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010737</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2912</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2703</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2654</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001384</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华安升级主题混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>68.67</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>66.71</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>50.30</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002216</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>易方达量化策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001385</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>48.92</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002224</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中邮绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>519619</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>519621</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010771</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011279</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010668</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>58.12</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>002518</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>民生加银鑫福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>002217</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>易方达量化策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>010772</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>65.03</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>012176</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>004944</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>75.76</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>50.30</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>000056</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>建信消费升级混合</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>010669</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>58.12</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>65.03</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>011778</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>38.66</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>519620</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>004948</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>75.76</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>007072</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>民生加银鑫福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000661-长春高新.xlsx
+++ b/数据整理/stocks/A股/深证主板/000661-长春高新.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -70497,4 +70498,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>236</v>
+      </c>
+      <c r="D2" t="n">
+        <v>129.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>380</v>
+      </c>
+      <c r="D3" t="n">
+        <v>255.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>656</v>
+      </c>
+      <c r="D4" t="n">
+        <v>390.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>568</v>
+      </c>
+      <c r="D5" t="n">
+        <v>372.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000661-长春高新.xlsx
+++ b/数据整理/stocks/A股/深证主板/000661-长春高新.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -70506,7 +70507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70517,17 +70518,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -70537,14 +70558,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>236</v>
-      </c>
-      <c r="D2" t="n">
-        <v>129.7</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.4993</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -70553,14 +70596,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>380</v>
-      </c>
-      <c r="D3" t="n">
-        <v>255.97</v>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>196.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.1219</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -70569,14 +70634,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>656</v>
-      </c>
-      <c r="D4" t="n">
-        <v>390.6</v>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.9139</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -70585,13 +70672,7365 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>110003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>243.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.2912</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>405.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.1441</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>138.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.9268</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>112.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.6708</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>198.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>31.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.4466</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.5510</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.0556</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.9733</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6042</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.5640</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.5247</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>39.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.5102</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3208</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.3071</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.2388</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011248</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实品质回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>60.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.1898</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.1283</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.8042</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.7521</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.6068</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.5560</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>59.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.4265</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010849</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.3713</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010736</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.3583</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2886</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1619</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.1044</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0534</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9673</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>110015</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达行业领先混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9654</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9557</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9408</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8957</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8574</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8437</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8006</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7272</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6851</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6653</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>31.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6512</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6215</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6114</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6064</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5701</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5699</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5613</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5548</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5468</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5296</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5173</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011777</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4856</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4786</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4674</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4635</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012008</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>55.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4551</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4501</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4486</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012175</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>56.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4385</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010737</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4027</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3943</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3813</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>63.98</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3358</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3133</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2955</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2920</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001384</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2716</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002216</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>易方达量化策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004100</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏华安益增强混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>29.14</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>72.49</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012009</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>55.12</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002518</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>民生加银鑫福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001385</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>002217</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>易方达量化策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>700002</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>平安深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005231</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>012176</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>56.12</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005232</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009817</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>44.94</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011778</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>009818</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>44.94</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>007072</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>民生加银鑫福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>194</v>
+      </c>
+      <c r="D2" t="n">
+        <v>143.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>236</v>
+      </c>
+      <c r="D3" t="n">
+        <v>129.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>380</v>
+      </c>
+      <c r="D4" t="n">
+        <v>255.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>656</v>
+      </c>
+      <c r="D5" t="n">
+        <v>390.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>568</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>372.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000661-长春高新.xlsx
+++ b/数据整理/stocks/A股/深证主板/000661-长春高新.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -77929,7 +77930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77940,17 +77941,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -77960,14 +77981,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>194</v>
-      </c>
-      <c r="D2" t="n">
-        <v>143.28</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>155.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2293</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -77976,14 +78019,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>236</v>
-      </c>
-      <c r="D3" t="n">
-        <v>129.7</v>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -77992,14 +78057,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>380</v>
-      </c>
-      <c r="D4" t="n">
-        <v>255.97</v>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6928</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -78008,14 +78095,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>656</v>
-      </c>
-      <c r="D5" t="n">
-        <v>390.6</v>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2824</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -78024,13 +78133,4307 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0524</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8184</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7134</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6187</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3840</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3728</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3004</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2282</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011278</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0536</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0405</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>49.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9923</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010736</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7722</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7366</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6757</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6204</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5787</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5645</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5425</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4986</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4509</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4202</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3704</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3526</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3462</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3133</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2602</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010737</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>41.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>70.68</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013714</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>方正富邦泰利12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011279</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>41.05</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>013715</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>方正富邦泰利12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>114</v>
+      </c>
+      <c r="D2" t="n">
+        <v>48.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>194</v>
+      </c>
+      <c r="D3" t="n">
+        <v>143.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>236</v>
+      </c>
+      <c r="D4" t="n">
+        <v>129.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>380</v>
+      </c>
+      <c r="D5" t="n">
+        <v>255.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>656</v>
+      </c>
+      <c r="D6" t="n">
+        <v>390.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>568</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>372.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000661-长春高新.xlsx
+++ b/数据整理/stocks/A股/深证主板/000661-长春高新.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="D2" t="n">
-        <v>111.19</v>
+        <v>71.62</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="D3" t="n">
-        <v>48.93</v>
+        <v>111.19</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="D4" t="n">
-        <v>143.28</v>
+        <v>48.93</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D5" t="n">
-        <v>129.7</v>
+        <v>143.28</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>380</v>
+        <v>236</v>
       </c>
       <c r="D6" t="n">
-        <v>255.97</v>
+        <v>129.7</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>656</v>
+        <v>380</v>
       </c>
       <c r="D7" t="n">
-        <v>390.6</v>
+        <v>255.97</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>656</v>
+      </c>
+      <c r="D8" t="n">
+        <v>390.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>568</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>372.62</v>
       </c>
     </row>
@@ -600,6 +617,7354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H193"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>117.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.1989</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>110.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3829</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1424</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5392</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6930</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4642</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4542</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3934</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013269</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银瑞和三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0030</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9902</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7553</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6391</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3044</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2771</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012417</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1634</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1286</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0570</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9737</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>61.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9554</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9524</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9301</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>45.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8031</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7413</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>31.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7407</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7033</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>32.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6180</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011278</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5946</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5904</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5839</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5608</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5453</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5453</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5261</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5142</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5113</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5032</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4712</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010736</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4592</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4241</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4064</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4021</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3785</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3495</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3476</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3447</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3121</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015195</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票D</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2966</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2936</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2929</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2571</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013885</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014526</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>43.28</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012999</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商稳旺混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010737</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>560900</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>上投摩根中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011681</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富均衡配置个股精选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011876</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>44.14</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011404</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>44.14</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>工银新药ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>012998</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>招商稳旺混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011877</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011279</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>560600</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>方正富邦中证医药及医疗器械创新ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011403</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011901</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>014527</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>560650</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>民生加银中证企业核心竞争力50ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>013874</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新指数C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011682</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>汇添富均衡配置个股精选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>013873</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新指数A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>015497</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>华泰紫金中证医药50指数A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>43.28</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011902</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>015194</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010144</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>011015</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>015498</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>华泰紫金中证医药50指数C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>011016</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>015619</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10717,7 +18082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15103,7 +22468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22525,7 +29890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31547,7 +38912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -46035,7 +53400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -70949,7 +78314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
